--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.141667333333333</v>
+        <v>5.040175333333333</v>
       </c>
       <c r="H2">
-        <v>12.425002</v>
+        <v>15.120526</v>
       </c>
       <c r="I2">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="J2">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N2">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O2">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P2">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q2">
-        <v>1.753307218333556</v>
+        <v>0.9093887550426666</v>
       </c>
       <c r="R2">
-        <v>15.779764965002</v>
+        <v>8.184498795384</v>
       </c>
       <c r="S2">
-        <v>0.1245255584334365</v>
+        <v>0.1102090506530542</v>
       </c>
       <c r="T2">
-        <v>0.1245255584334365</v>
+        <v>0.1102090506530542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.141667333333333</v>
+        <v>5.040175333333333</v>
       </c>
       <c r="H3">
-        <v>12.425002</v>
+        <v>15.120526</v>
       </c>
       <c r="I3">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="J3">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.051827</v>
       </c>
       <c r="O3">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P3">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q3">
-        <v>0.07155006429488889</v>
+        <v>0.08707238900022221</v>
       </c>
       <c r="R3">
-        <v>0.6439505786540001</v>
+        <v>0.783651501002</v>
       </c>
       <c r="S3">
-        <v>0.005081717350560914</v>
+        <v>0.01055232459890897</v>
       </c>
       <c r="T3">
-        <v>0.005081717350560915</v>
+        <v>0.01055232459890897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.141667333333333</v>
+        <v>5.040175333333333</v>
       </c>
       <c r="H4">
-        <v>12.425002</v>
+        <v>15.120526</v>
       </c>
       <c r="I4">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="J4">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N4">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O4">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P4">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q4">
-        <v>0.1840156601757778</v>
+        <v>0.3558178978904444</v>
       </c>
       <c r="R4">
-        <v>1.656140941582</v>
+        <v>3.202361081014</v>
       </c>
       <c r="S4">
-        <v>0.01306938829902589</v>
+        <v>0.04312166003199744</v>
       </c>
       <c r="T4">
-        <v>0.0130693882990259</v>
+        <v>0.04312166003199745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>18.144572</v>
       </c>
       <c r="I5">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="J5">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N5">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O5">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P5">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q5">
-        <v>2.560402731619111</v>
+        <v>1.091262945605333</v>
       </c>
       <c r="R5">
-        <v>23.043624584572</v>
+        <v>9.821366510448</v>
       </c>
       <c r="S5">
-        <v>0.1818480963492557</v>
+        <v>0.1322504292923401</v>
       </c>
       <c r="T5">
-        <v>0.1818480963492557</v>
+        <v>0.1322504292923401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>18.144572</v>
       </c>
       <c r="I6">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="J6">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>0.051827</v>
       </c>
       <c r="O6">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P6">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q6">
         <v>0.1044865258937778</v>
@@ -827,10 +827,10 @@
         <v>0.940378733044</v>
       </c>
       <c r="S6">
-        <v>0.007420971550016793</v>
+        <v>0.01266274820414811</v>
       </c>
       <c r="T6">
-        <v>0.007420971550016793</v>
+        <v>0.01266274820414812</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>18.144572</v>
       </c>
       <c r="I7">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="J7">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N7">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O7">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P7">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q7">
-        <v>0.2687231273835556</v>
+        <v>0.4269800843675555</v>
       </c>
       <c r="R7">
-        <v>2.418508146452</v>
+        <v>3.842820759308</v>
       </c>
       <c r="S7">
-        <v>0.01908558702748159</v>
+        <v>0.05174582320814103</v>
       </c>
       <c r="T7">
-        <v>0.01908558702748159</v>
+        <v>0.05174582320814104</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.637153666666666</v>
+        <v>4.433369666666667</v>
       </c>
       <c r="H8">
-        <v>10.911461</v>
+        <v>13.300109</v>
       </c>
       <c r="I8">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="J8">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N8">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O8">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P8">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q8">
-        <v>1.539729597940111</v>
+        <v>0.7999040222173334</v>
       </c>
       <c r="R8">
-        <v>13.857566381461</v>
+        <v>7.199136199956</v>
       </c>
       <c r="S8">
-        <v>0.1093565839546475</v>
+        <v>0.09694056850086714</v>
       </c>
       <c r="T8">
-        <v>0.1093565839546475</v>
+        <v>0.09694056850086714</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.637153666666666</v>
+        <v>4.433369666666667</v>
       </c>
       <c r="H9">
-        <v>10.911461</v>
+        <v>13.300109</v>
       </c>
       <c r="I9">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="J9">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.051827</v>
       </c>
       <c r="O9">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P9">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q9">
-        <v>0.06283425436077776</v>
+        <v>0.07658941657144444</v>
       </c>
       <c r="R9">
-        <v>0.5655082892469999</v>
+        <v>0.6893047491429999</v>
       </c>
       <c r="S9">
-        <v>0.004462692294429308</v>
+        <v>0.009281890548574206</v>
       </c>
       <c r="T9">
-        <v>0.004462692294429308</v>
+        <v>0.009281890548574206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.637153666666666</v>
+        <v>4.433369666666667</v>
       </c>
       <c r="H10">
-        <v>10.911461</v>
+        <v>13.300109</v>
       </c>
       <c r="I10">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="J10">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N10">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O10">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P10">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q10">
-        <v>0.1615999497945556</v>
+        <v>0.3129796427778889</v>
       </c>
       <c r="R10">
-        <v>1.454399548151</v>
+        <v>2.816816785001</v>
       </c>
       <c r="S10">
-        <v>0.01147735193271417</v>
+        <v>0.03793008118146879</v>
       </c>
       <c r="T10">
-        <v>0.01147735193271417</v>
+        <v>0.03793008118146879</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.741341666666667</v>
+        <v>3.607224333333333</v>
       </c>
       <c r="H11">
-        <v>17.224025</v>
+        <v>10.821673</v>
       </c>
       <c r="I11">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="J11">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N11">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O11">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P11">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q11">
-        <v>2.430503219336111</v>
+        <v>0.6508442720146667</v>
       </c>
       <c r="R11">
-        <v>21.874528974025</v>
+        <v>5.857598448131999</v>
       </c>
       <c r="S11">
-        <v>0.1726222121812512</v>
+        <v>0.0788759800953875</v>
       </c>
       <c r="T11">
-        <v>0.1726222121812512</v>
+        <v>0.0788759800953875</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.741341666666667</v>
+        <v>3.607224333333333</v>
       </c>
       <c r="H12">
-        <v>17.224025</v>
+        <v>10.821673</v>
       </c>
       <c r="I12">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="J12">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.051827</v>
       </c>
       <c r="O12">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P12">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q12">
-        <v>0.09918550485277777</v>
+        <v>0.06231720517455554</v>
       </c>
       <c r="R12">
-        <v>0.8926695436750001</v>
+        <v>0.5608548465709999</v>
       </c>
       <c r="S12">
-        <v>0.007044475863182554</v>
+        <v>0.00755223768004162</v>
       </c>
       <c r="T12">
-        <v>0.007044475863182554</v>
+        <v>0.00755223768004162</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.741341666666667</v>
+        <v>3.607224333333333</v>
       </c>
       <c r="H13">
-        <v>17.224025</v>
+        <v>10.821673</v>
       </c>
       <c r="I13">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="J13">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N13">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O13">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P13">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q13">
-        <v>0.2550897240305556</v>
+        <v>0.2546568114441111</v>
       </c>
       <c r="R13">
-        <v>2.295807516275</v>
+        <v>2.291911302997</v>
       </c>
       <c r="S13">
-        <v>0.01811729855634063</v>
+        <v>0.03086192266614573</v>
       </c>
       <c r="T13">
-        <v>0.01811729855634063</v>
+        <v>0.03086192266614573</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.493902333333334</v>
+        <v>6.973136333333334</v>
       </c>
       <c r="H14">
-        <v>16.481707</v>
+        <v>20.919409</v>
       </c>
       <c r="I14">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="J14">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N14">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O14">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P14">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q14">
-        <v>2.325753819078556</v>
+        <v>1.258149042350667</v>
       </c>
       <c r="R14">
-        <v>20.931784371707</v>
+        <v>11.323341381156</v>
       </c>
       <c r="S14">
-        <v>0.1651825704423451</v>
+        <v>0.1524753970935243</v>
       </c>
       <c r="T14">
-        <v>0.1651825704423451</v>
+        <v>0.1524753970935243</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.493902333333334</v>
+        <v>6.973136333333334</v>
       </c>
       <c r="H15">
-        <v>16.481707</v>
+        <v>20.919409</v>
       </c>
       <c r="I15">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="J15">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.051827</v>
       </c>
       <c r="O15">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P15">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q15">
-        <v>0.09491082540988889</v>
+        <v>0.1204655789158889</v>
       </c>
       <c r="R15">
-        <v>0.8541974286889999</v>
+        <v>1.084190210243</v>
       </c>
       <c r="S15">
-        <v>0.006740874281449715</v>
+        <v>0.01459925363610616</v>
       </c>
       <c r="T15">
-        <v>0.006740874281449715</v>
+        <v>0.01459925363610616</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.493902333333334</v>
+        <v>6.973136333333334</v>
       </c>
       <c r="H16">
-        <v>16.481707</v>
+        <v>20.919409</v>
       </c>
       <c r="I16">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="J16">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N16">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O16">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P16">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q16">
-        <v>0.2440959119707778</v>
+        <v>0.4922778569667778</v>
       </c>
       <c r="R16">
-        <v>2.196863207737001</v>
+        <v>4.430500712701001</v>
       </c>
       <c r="S16">
-        <v>0.01733648240972301</v>
+        <v>0.05965927659978943</v>
       </c>
       <c r="T16">
-        <v>0.01733648240972301</v>
+        <v>0.05965927659978943</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.966088666666666</v>
+        <v>4.652614333333333</v>
       </c>
       <c r="H17">
-        <v>11.898266</v>
+        <v>13.957843</v>
       </c>
       <c r="I17">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="J17">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N17">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O17">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P17">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q17">
-        <v>1.678978857585111</v>
+        <v>0.8394618989346667</v>
       </c>
       <c r="R17">
-        <v>15.110809718266</v>
+        <v>7.555157090412</v>
       </c>
       <c r="S17">
-        <v>0.119246517468534</v>
+        <v>0.1017345974732875</v>
       </c>
       <c r="T17">
-        <v>0.119246517468534</v>
+        <v>0.1017345974732875</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.966088666666666</v>
+        <v>4.652614333333333</v>
       </c>
       <c r="H18">
-        <v>11.898266</v>
+        <v>13.957843</v>
       </c>
       <c r="I18">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="J18">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.051827</v>
       </c>
       <c r="O18">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P18">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q18">
-        <v>0.06851682577577776</v>
+        <v>0.08037701435122221</v>
       </c>
       <c r="R18">
-        <v>0.616651431982</v>
+        <v>0.723393129161</v>
       </c>
       <c r="S18">
-        <v>0.00486628692484629</v>
+        <v>0.009740910470747467</v>
       </c>
       <c r="T18">
-        <v>0.00486628692484629</v>
+        <v>0.009740910470747469</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.966088666666666</v>
+        <v>4.652614333333333</v>
       </c>
       <c r="H19">
-        <v>11.898266</v>
+        <v>13.957843</v>
       </c>
       <c r="I19">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="J19">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N19">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O19">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P19">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q19">
-        <v>0.1762146414895556</v>
+        <v>0.3284575123474444</v>
       </c>
       <c r="R19">
-        <v>1.585931773406</v>
+        <v>2.956117611127</v>
       </c>
       <c r="S19">
-        <v>0.01251533468075881</v>
+        <v>0.03980584806547043</v>
       </c>
       <c r="T19">
-        <v>0.01251533468075881</v>
+        <v>0.03980584806547043</v>
       </c>
     </row>
   </sheetData>
